--- a/espacios.xlsx
+++ b/espacios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t xml:space="preserve">Lengua basica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingles</t>
   </si>
 </sst>
 </file>
@@ -169,13 +172,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A4" activeCellId="0" sqref="A4"/>
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.60546875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.16"/>
@@ -258,6 +261,26 @@
         <v>3</v>
       </c>
       <c r="F4" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F5" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/espacios.xlsx
+++ b/espacios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -40,31 +40,270 @@
     <t xml:space="preserve">plan</t>
   </si>
   <si>
-    <t xml:space="preserve">Matematica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Matemática</t>
+    <t xml:space="preserve">Mat-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matemática de primero</t>
   </si>
   <si>
     <t xml:space="preserve">Sumas y restas básicas</t>
   </si>
   <si>
-    <t xml:space="preserve">Fisica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Física</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Leyes fundamentales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Lengua basica</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ingles</t>
+    <t xml:space="preserve">Fis-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física de primero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisica basica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Len-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua de primero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lectura basica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingl-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingles de primero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colores y palabras basicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsS-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciencias Sociales de primero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociedades basicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsN-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciencias Naturales de primero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plantas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller-1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller de primero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller de pintura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mat-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matemática de segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multiplicaciones y divisiones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fis-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física de segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisica avanzada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Len-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua de segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lectura e interpretacion de texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingl-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingles de segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Presente simples y verbos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsS-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciencias Sociales de segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sociedades y relaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsN-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciencias Naturales de segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Celulas y seres vivos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller-2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller de segundo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller de musica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mat-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matemática de tercero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Itegrales y derivadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fis-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Física de tercero</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reacciones y laboratorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Len-3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Lengua de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tercero</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">redaccion de texto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingl-3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ingles de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tercero</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">CsS-3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ciencias Sociales de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tercero</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerras e Historia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CsN-3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ciencias Naturales de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tercero</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratorio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller-3</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Taller de </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">tercero</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Taller de madera</t>
   </si>
 </sst>
 </file>
@@ -74,7 +313,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -102,6 +341,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -172,16 +416,18 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5"/>
+      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="21.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -238,13 +484,13 @@
         <v>11</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
@@ -252,13 +498,13 @@
         <v>3</v>
       </c>
       <c r="C4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" s="0" t="n">
         <v>1</v>
@@ -266,21 +512,361 @@
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B5" s="0" t="n">
         <v>3</v>
       </c>
       <c r="C5" s="0" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E5" s="0" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="0" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="0" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="0" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="0" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C7" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="D7" s="0" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="0" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="0" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="0" t="s">
+        <v>27</v>
+      </c>
+      <c r="B9" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C9" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C10" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C11" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="D11" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C13" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C14" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C15" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="D15" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="0" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C16" s="0" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" s="0" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C17" s="0" t="s">
+        <v>52</v>
+      </c>
+      <c r="D17" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C18" s="0" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="0" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="B19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C19" s="0" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="B20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C20" s="0" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="0" t="s">
+        <v>61</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C21" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="0" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="B22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C22" s="0" t="s">
+        <v>66</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="F22" s="0" t="n">
         <v>1</v>
       </c>
     </row>

--- a/espacios.xlsx
+++ b/espacios.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="118">
   <si>
     <t xml:space="preserve">codigo</t>
   </si>
@@ -187,23 +187,7 @@
     <t xml:space="preserve">Len-3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Lengua de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tercero</t>
-    </r>
+    <t xml:space="preserve">Lengua de tercero</t>
   </si>
   <si>
     <t xml:space="preserve">redaccion de texto</t>
@@ -212,45 +196,13 @@
     <t xml:space="preserve">Ingl-3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ingles de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tercero</t>
-    </r>
+    <t xml:space="preserve">Ingles de tercero</t>
   </si>
   <si>
     <t xml:space="preserve">CsS-3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ciencias Sociales de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tercero</t>
-    </r>
+    <t xml:space="preserve">Ciencias Sociales de tercero</t>
   </si>
   <si>
     <t xml:space="preserve">Guerras e Historia</t>
@@ -259,23 +211,7 @@
     <t xml:space="preserve">CsN-3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Ciencias Naturales de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tercero</t>
-    </r>
+    <t xml:space="preserve">Ciencias Naturales de tercero</t>
   </si>
   <si>
     <t xml:space="preserve">Laboratorio</t>
@@ -284,26 +220,160 @@
     <t xml:space="preserve">Taller-3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Taller de </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">tercero</t>
-    </r>
+    <t xml:space="preserve">Taller de tercero</t>
   </si>
   <si>
     <t xml:space="preserve">Taller de madera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ingles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greografia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">prim5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Analisis matematico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secu1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lengua y numeros</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secu2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenguaje corporal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secu3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Primeros auxilios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secu4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Historia contemporanea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">secu5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Geografia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terc1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computacion</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terc2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Computacion avanzada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terc3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarme de computadora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terc4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Programacion basica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terc5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tecnicas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuatr1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Practicas profesionales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuatr2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">isfpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuatr3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gimnasia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuatr4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atletismo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuatr5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formacion etica</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quint1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Matematicas finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quint2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lenguas Finales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quint3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fisica Final</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quint4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Preparacion Universidad</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quint5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elige tu carrera</t>
   </si>
 </sst>
 </file>
@@ -313,7 +383,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -341,11 +411,6 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -416,17 +481,17 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F47"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F2" activeCellId="0" sqref="F2:F22"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2:F21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66015625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.97"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="15.96"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="25.87"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.38"/>
   </cols>
   <sheetData>
@@ -868,6 +933,431 @@
       </c>
       <c r="F22" s="0" t="n">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C23" s="0" t="s">
+        <v>69</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C24" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C25" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C26" s="0" t="s">
+        <v>75</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="0" t="s">
+        <v>76</v>
+      </c>
+      <c r="B27" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C27" s="0" t="s">
+        <v>77</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="0" t="s">
+        <v>78</v>
+      </c>
+      <c r="B28" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C28" s="0" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="0" t="s">
+        <v>80</v>
+      </c>
+      <c r="B29" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C29" s="0" t="s">
+        <v>81</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C30" s="0" t="s">
+        <v>83</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="0" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C31" s="0" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="0" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C32" s="0" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="0" t="s">
+        <v>88</v>
+      </c>
+      <c r="B33" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C33" s="0" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="0" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C34" s="0" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="0" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C35" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="0" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C36" s="0" t="s">
+        <v>95</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0" t="s">
+        <v>96</v>
+      </c>
+      <c r="B37" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C37" s="0" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="0" t="s">
+        <v>98</v>
+      </c>
+      <c r="B38" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C38" s="0" t="s">
+        <v>99</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="0" t="s">
+        <v>100</v>
+      </c>
+      <c r="B39" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C39" s="0" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="0" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C40" s="0" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="0" t="s">
+        <v>104</v>
+      </c>
+      <c r="B41" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C41" s="0" t="s">
+        <v>105</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="0" t="s">
+        <v>106</v>
+      </c>
+      <c r="B42" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C42" s="0" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C43" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C44" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>5</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" s="0" t="s">
+        <v>113</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>6</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="0" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C46" s="0" t="s">
+        <v>115</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>7</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0" t="s">
+        <v>116</v>
+      </c>
+      <c r="B47" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="C47" s="0" t="s">
+        <v>117</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>8</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
